--- a/data/df.xlsx
+++ b/data/df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krisztinasara\github\developmental_disorders_SL\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC844D2-4FF9-4B6E-9918-FA49EE4ED2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA52F47-1A6A-4EE6-A329-B0DBEEBFACC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="184">
   <si>
     <t>ID</t>
   </si>
@@ -573,6 +573,9 @@
   </si>
   <si>
     <t>nagyon rossz reliabilitás felnőtteknél, inkább dec RT?</t>
+  </si>
+  <si>
+    <t>rossz reliabilitás felnőtteknél</t>
   </si>
 </sst>
 </file>
@@ -938,7 +941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -8903,7 +8906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C72D74F-826C-43C7-AAF6-3ECECD990B8C}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9328,7 +9331,7 @@
         <v>147</v>
       </c>
       <c r="E26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
